--- a/python/output.xlsx
+++ b/python/output.xlsx
@@ -14,30 +14,405 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Leger, The Research Intelligence Group is the largest Canadian-owned marketing and research firm with more than 400 employees located in its offices in Montreal, Quebec, Toronto, Edmonton and Calgary in Canada, and Philadelphia in the United States. Our firm is distinguished by the marketing intelligence and strategic advice that we offer our customers.
-Being at the forefront of our industry, working for Leger means working on ambitious and compelling projects and integrating a team of passionate people who are invested in their work. To join the Leger team is to have at heart the values of quality, innovation, collaboration and commitment. Ready to take on the challenge?
-JOB DESCRIPTION
-Leger is expanding its team and seeking to hire a research analyst in its US office. The candidate hired to join our team will be responsible for analyzing large sets of data and reporting on findings to help shape our client’s strategy and success.
-The research analyst responsibilities are primarily related to internal project management, research report writing and client deliverables. As part of our research team, you will play an important role in delivering strategic insights to our prestigious clients through analyzing data, providing observations and by delivering the most creative and appealing reports.
-The position requires a highly analytical and detail oriented person with a can-do attitude. If you are curious about consumer behavior, love to play with data, thrive in a fast paced environment and you have superior writing skills, this opportunity is for you!
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+  <si>
+    <t>Job title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Operations Analyst</t>
+  </si>
+  <si>
+    <t>Operations Assistant</t>
+  </si>
+  <si>
+    <t>Associate, Global Marketing Analytics</t>
+  </si>
+  <si>
+    <t>Coordinator - Corporate Operations</t>
+  </si>
+  <si>
+    <t>Associate, People Operations</t>
+  </si>
+  <si>
+    <t>Operations Associate</t>
+  </si>
+  <si>
+    <t>Manager, Music Operations</t>
+  </si>
+  <si>
+    <t>Logistics / Operations Coordinator</t>
+  </si>
+  <si>
+    <t>CrowdTangle Operations Lead</t>
+  </si>
+  <si>
+    <t>$58,440 - $72,310 a yearContractPERMANENT Associate Contract Specialists are strongly encouraged to apply.
+The New York City Department of Youth and Community Development (DYCD) invests in a network of community-based organizations and programs to alleviate the effects of poverty and to provide opportunities for New Yorkers and communities to flourish. In August 2018, DYCD launched the re-branding of the Youth Workforce Development unit to Workforce Connect. Workforce Connect coordinates NYC’s youth workforce development programs by assisting youth between the ages of 14 and 24 to gain work experience and further their education. Programs associated with Workforce Connect include:
+Intern &amp; Earn (formerly the Young Adult Internship Program)Learn &amp; Earn (formerly the In-School Youth Program)NYC Ladders for LeadersSummer Youth Employment Program (SYEP)Train &amp; Earn (formerly the Out-of-School Youth Program)
+Work, Learn &amp; Grow Employment Program (WLG) DYCD is seeking an Operations Analyst to join the Workforce Unit. Under the direction of the Director of Operations, the Operations Analyst will provide specialized support and guidance to the entire Workforce initiative with policy development, contract compliance and performance, data inquiries and interpretation, unit operations and efficiencies, and communication to providers. The analyst would offer day to day support to the Director of Operations. Key tasks include:
+Support oversight regarding compliance, performance, and risk analysis and tracking of unit’s overall operations.Create, compile, and maintain dashboards, trackers, and reports for internal and external stakeholders. The retrieval, reconciliation, and preparation of data from multiple systems will be used for reporting, management analysis, and decision making.
+• Provide resources to program teams on issues regarding program and regulatory issues. • Support staff training and create resource materials.
+Provide project management support to the Workforce Unit.
+NOTE: This position is open to qualified persons with a disability who are eligible for the 55-a Program. Please indicate in your cover letter that you would like to be considered for the position under the 55-a Program.
+Minimum Qual Requirements
+1. A baccalaureate degree from an accredited college and two years of full-time satisfactory professional, technical or administrative experience in one or more of the following fields: program evaluation, contract negotiations/management, fiscal/financial management, or project management; or
+2. A four year high school diploma, or its educational equivalent, and six years of full-time, satisfactory professional, technical or administrative work experience in one or more of the fields cited above; or
+3. Education and/or experience equivalent to "1" or "2" above. College credits obtained from an accredited college may be substituted for experience on the basis of 30 college semester credits for one year of experience as described in "1" above.
+However, all candidate must have at least a four-year high school diploma or its educational equivalent and at least two years of full-time experience as described in "1" above.
+Preferred Skills
+Advanced excel skills. Must have familiarity navigating large data sets.Experience compiling/generating/maintaining dashboards and geographical mapping.Experience navigating multiple data systemsProject management and data stewardship experience.Knowledgeable about Workforce programs.Excellent communication skills.Superior project manager.Prior leadership experience working in a DYCD funded contract.
+To Apply
+Search for the Job ID #380387
+External Candidates please go to www.nyc.gov/careers
+Current NYC employees please go to www.nyc.gov/ess
+ALL APPLICATIONS MUST BE SUBMITTED VIA THE ONLINE PORTALS MENTIONED ABOVE. SUBMISSION OF AN APPLICATION DOES NOT GUARANTEE AN INTERVIEW. ONLY CANDIDATES UNDER CONSIDERATION WILL BE CONTACTED.
+*If you do not have access to a personal computer, please visit your local library*
+Hours/Shift
+35 Hours per week
+Work Location
+161 William St New York N Y
+Residency Requirement
+New York City residency is generally required within 90 days of appointment. However, City Employees in certain titles who have worked for the City for 2 continuous years may also be eligible to reside in Nassau, Suffolk, Putnam, Westchester, Rockland, or Orange County. To determine if the residency requirement applies to you, please discuss with the agency representative at the time of interview.</t>
+  </si>
+  <si>
+    <t>About the position :
+The Wirecutter is seeking a New York City based Operations Assistant to manage our NY test center and photo studio to support our editorial, testing and photography staff to be highly productive, efficient and successful both in and out of our space. As Ops Assistant you will be a key partner to the Testing Manager and Senior Operations Manager serving as the main level of support for everything that happens in and around the NY test center as well as assisting in daily operations for the creative side of the office. You’ll also work alongside an ops team in supporting a remote company with multiple offices and staff around the country.
+About Wirecutter :
+Founded five years ago by journalists fed up with the time and energy it takes to shop, Wirecutter developed a simpler approach to giving buying advice: just tell people exactly what to get in one single guide. The company’s purpose: to help people find great things, quickly and easily. Through rigorous testing, research, reporting, and whatever means necessary, they create straightforward recommendations that save readers from unnecessary stress, time, and effort. We then monetize these guides by enabling our readers to easily purchase the products they are interested in.
+Locations :
+Even with offices in New York City and Los Angeles, Wirecutter remains a highly remote culture, and open to employing people across the country (and in Canada!). Right now, we are eligible to hire in CA, CO, CT, DC, FL, GA, HI, IL, MA, ME, MI, MN, MO, NC, NH, NV, NY, OR, PA, TX, VA, WA. If you live outside of these states but are still interested in working with Wirecutter, you are welcome to apply, and we will keep your information on file for future opportunities.
+Who are we looking for?
+We’re looking for an organized problem solver who takes pride in their responsibilities and always wants to help those around them. You should have a background in supporting a small to medium sized team and have the ability to operate successfully within a startup culture which encourages a proactive and empowered mentality without hand holding.
+You should have experience in managing an office, photo studio, creative space, event space or similar that relies on a maintained schedule for operating effectively and have served as the go to person for all internal and external communication regarding the space. You should also have experience working in a digital environment, operating and communicating effectively both in person and over a computer.
+Ideally you have experience assisting in photo, video, small event or any similar physical based production; as well as thinking creatively to solve logistical problems with both proper lead time planning and quick last minute solutions
+Above all else you should love helping people and thrive at solving problems. You should operate with ownership but know when to ask for help and how to prioritize.
+Why should you apply?
+As Operations Assistant for the Wirecutter you’ll get to join an ops team that’s empowered to run unique and fun offices that consist of digital working environments, product test centers and photo studios. You will manage our flagship NY test center providing day to day production level support for testing and photos by working alongside the editors and photographers within the facility to make sure they have everything they need to be successful. You’ll also help an office manager run our NY office and support a world class editorial team producing the most trusted buying advice as part of The New York Times Company. You’ll get to operate with the excitement of working for a startup but with accessible resources and support of The New York Times Company.
+Responsibilities
+Assist in the move-in and setup of our new NY facility.
+Manage the NY test center by: Assisting in photo shoots and product testing, Assisting the Testing Manager in planning/scheduling/execution and supporting the Senior Operations Manager in facilities repairs, upgrades, maintenance and changes.
+Manage inventory of our test products consisting of purchased goods and product loans that will be stored in our offices, in partnership with the Testing Manager.
+Handle shipping and receiving of all items to and from our NY space.
+Assist the editorial staff in securing, purchasing and/or delivering test products to our offices and remote staff on a daily basis.
+Run errands locally, prep for test events / photoshoots and pick up products from staff delivering to office/other staffers.
+Assist in daily office operations of the office areas of the LIC facility, in support of Office Manager when/where possible.
+Help plan and execute both small and large events in our offices, city and around the country.
+Qualifications
+Experience working in a production based environment.
+Experience managing an office, photo studio, creative space or similar.
+Must be able to commute daily to an office in and around NYC.
+Must have a valid driver’s license.
+Experience working with a remote staff and editorial is a plus.
+Excellent interpersonal and communication skills, both written and in person.
+Highly organized with the ability to problem solve, prioritize and delegate.
+General technical and digital knowledge required, more experience is a plus.
+Culture at The New York Times Company and Wirecutter :
+Though Wirecutter has physical locations in both NYC and LA, the company promotes and encourages a remote workforce, so that our employees can work in flexible and comfortable ways.
+We are committed to career development, supported by a formal mentoring program as well as tuition reimbursement. The New York Times Company offers frequent panel discussions and talks by industry leaders (Sheryl Sandberg, Melinda Gates and Ta-Nehisi Coates are a few recent examples), that we encourage our employees to attend.
+We believe diversity fuels innovation and creativity, and we have a variety of employee groups and task forces across The New York Times Company and Wirecutter dedicated to fostering a diverse and inclusive workplace.
+Benefits and Perks:
+Make an impact by supporting our original, independent and deeply reported journalism.
+We provide competitive health, dental, vision and life insurance for employees and their families
+We support responsible retirement planning with a generous 401(k) company match.
+We offer a competitive parental leave.
+We are committed to career development and ongoing learning, and provide employees $8,000 annually for tuition reimbursement.
+We have frequent panel discussions and talks by a wide variety of newsmakers and industry leaders.
+Join a community committed to the richness of diversity, experiences and talents in the world we cover, supported by a variety of employee resource groups.
+#LI-CP1
+Culture and benefits at The New York Times Company and Wirecutter :
+Though Wirecutter has physical locations in both NYC and LA, the company promotes and encourages a remote workforce, so that our employees can work in flexible and comfortable ways.
+We are committed to career development, supported by a formal mentoring program as well as tuition reimbursement. The New York Times Company offers frequent panel discussions and talks by industry leaders (Sheryl Sandberg, Melinda Gates and Ta-Nehisi Coates are a few recent examples), that we encourage our employees to attend.
+We believe diversity fuels innovation and creativity, and we have a variety of employee groups and task forces across The New York Times Company and Wirecutter dedicated to fostering a diverse and inclusive workplace.
+We offer a generous parental leave policy, which was recently expanded in response to employee feedback. Birth mothers receive 16 weeks fully paid, adoptive parents and birth fathers receive 10 weeks also fully paid. Similarly, we offer competitive health and dental insurance, as well as 401k matching.
+The New York Times Company is an Equal Opportunity Employer and does not discriminate on the basis of an individual's sex, age, race, color, creed, national origin, alienage, religion, marital status, pregnancy, sexual orientation or affectional preference, gender identity and expression, disability, genetic trait or predisposition, carrier status, citizenship, veteran or military status and other personal characteristics protected by law. All applications will receive consideration for employment without regard to legally protected characteristics.
+The New York Times is committed to a diverse and inclusive workforce, one that reflects the varied global community we serve. Our journalism and the products we build in the service of that journalism greatly benefit from a range of perspectives, which can only come from diversity of all types, across our ranks, at all levels of the organization. Achieving true diversity and inclusion is the right thing to do. It is also the smart thing for our business. So we strongly encourage women, veterans, people with disabilities, people of color and gender nonconforming candidates to apply.
+The New York Times Company is an Equal Opportunity Employer and does not discriminate on the basis of an individual's sex, age, race, color, creed, national origin, alienage, religion, marital status, pregnancy, sexual orientation or affectional preference, gender identity and expression, disability, genetic trait or predisposition, carrier status, citizenship, veteran or military status and other personal characteristics protected by law. All applications will receive consideration for employment without regard to legally protected characteristics.</t>
+  </si>
+  <si>
+    <t>What You’ll Do
+Analyze the results of marketing campaigns and recommend optimizations to improve performance
+Ensure and monitor proper instrument tracking (e.g. via DoubleClick, Google Analytics, Adjust, internal CRM platforms) for marketing campaigns
+Answer ad-hoc marketing data questions, and troubleshoot tracking issues from a team of global marketers
+Support targeting requests from a variety of different Marketing teams
+Access marketing performance data through a variety of tools
+Build performance reports and dashboards (e.g. Tableau, Datorama)
+Leverage external targeting platforms to improve marketing effectiveness
+Set and ensure compliance of taxonomy standards from agency partners
+Act as a liaison on behalf of the company and media Agency Partners
+Who You Are
+1+ years of experience in Digital Media including Digital Media Trafficking and Ad Operations with a proven track record of delivering performance results required
+In-Depth Understanding of Mobile Advertising Platforms
+Familiarity with digital media channels (search, display, social). Mobile, CRM
+Strong analytical skills, including data querying and dashboarding (utilizing tools such as Tableau, Datorama) preferred
+Familiarity with marketing tracking platforms (e.g. DoubleClick, Google Tag Manager, Google Analytics, Adjust) preferred
+Strong experience in Excel or SQL
+We believe that everyone should enjoy their job, so we live by a work hard, play hard ethos. Spotify is a positive, fun, high-energy work environment that you’ve always wanted to be part of!</t>
+  </si>
+  <si>
+    <t>Our past is full of iconic moments — but our future is going to spark many more. We're looking for the people who'll help make our next decade just as revolutionary as our first five. If you're one of the super-talented who thrive on change, aren't afraid to take risks and love to make a difference, you're the right fit. Come grow with us.
+OVERVIEW
+Corporate Operations is responsible for coordinating the corporate services for the company as a whole. The Corporate Operations Coordinator (COC) position is seen as the go-to person within the Operations team for their peers and business partners. Employee service requests are sent or called in; the coordinator uses their strong general knowledge of department policies and procedures to route service requests to the appropriate provider. The Corporate Operations Coordinator will serve as a primary for conference rooms and service request support to the corporate employee population. The Corporate Operations Coordinator must have a well-rounded knowledge of all aspects of the Corporate Operations department, affiliated departments, and the company as a whole to serve as a resource to business partners. Core duties, but not limited too, are below:
+KEY RESPONSIBILITIES
+Conference Room/Events Management
+Assist on-site production teams and presenters for corporate meetings and conferences as needed.
+Partner with Global Events/Catering team(s) to produce successful on-site event.
+Partnering with peers on tracking events within the Operations calendar and helping own meeting reservations and bookings when upper staff is away.
+Corporate Operations Support
+Answer incoming requests from the department hotline/inbox along with monitoring Service Now tickets created by internal BP. Determine appropriate group to handle service request (Corporate Operations Representative, Engineering, Vendor, self-perform, Supervisor or Manager) and direct accordingly.
+Perform various tasks within department including, but not limited to: filing cabinet key requests, janitorial issues, painting, lighting requests, etc.
+Proactively identify issues and develop thorough, well-defined recommendations to meet customer requirements through partnering with team on weekly walkthroughs of the building.
+Help hold COR team accountable for daily walkthroughs of floor ownership and opening and completing tickets accordingly for daily findings. Report inspection results to Supervisor
+Partner with Corporate Operations Supervisor to learn entry level vendor management maintenance to assist in requests and walkthroughs in absence of Supervisor.
+Facilitate maintenance requests through SN ticket system for all buildings including pest control, locksmith, janitorial, flooring, plumbing, lighting, HVAC, painting, electrical, signage, etc.
+Ability to support COR duties when needed.
+Help create new systems and initiatives to help reduce net spend, increase productivity and create a higher level of customer service initiatives.
+Creation and upkeep of filing systems, organization of operational closet and inventory logs of operation owned goods.
+Moves Coordination
+Assist Supervisor with departmental purges and collection of stats to report to SF office.
+Scoping of workstations and offices for scheduled weekly moves.
+Manage and execute all weekly moves on scheduled move day.
+Keep inventory record of all moves supplies needed for departmental moves.
+KEY EXPERIENCES
+Excellent customer service skills.
+Ability to work in a flexible, positive and team oriented work environment is a must
+Pleasant phone demeanor and experience dealing with multiple phone lines.
+Juggle multiple projects and prioritize them accordingly.
+Broad knowledge of Corporate Operations policies and procedures.
+Excellent communication skills (verbal and written).
+Open to change and able to embrace new processes.
+Substantial knowledge and experience using a PC and its associated software packages, such as Word, Excel, PowerPoint, and Outlook.
+Demonstrated ability to work independently on multiple projects involving different customer groups.
+Treat confidential information appropriately.
+Strong organizational skills and able to work independently.
+Lead and communicate to team members concerning workload and pending tasks.
+Remain calm during stressful situations.
+High school diploma or GED.
+College degree preferred.
+Experience with providing high service levels and owning multiple responsibilities.
+Ability to walk, stand, kneel, and carry objects up to 60 lbs.
+KEY BENEFITS:
+Merchandise discount for our brands: 50% off regular-priced merchandise at Gap, Banana Republic and Old Navy, 30% off at Outlet and 25% off at Athleta.
+One of the most competitive Paid Time Off plans in the industry.*
+Employees can take up to five “on the clock” hours each month to volunteer at a charity of their choice.*
+Extensive 401(k) plan with company matching for contributions up to four percent of an employee’s base pay.*
+Employee stock purchase plan.*
+Employees receive medical, dental, vision and life insurance.*
+Employees can apply for tuition reimbursement.*
+Family care programs.
+Commuter benefits.
+Pet Discount Program.
+For eligible employees
+Gap Inc. is an equal-opportunity employer and is committed to providing a workplace free from harassment and discrimination. We are committed to recruiting, hiring, training and promoting qualified people of all backgrounds, and make all employment decisions without regard to any protected status. In 2016, Gap Inc. was named one of the Best Places to Work by the Human Rights Campaign for the thirteenth consecutive year and was the sole winner of the Catalyst award for equality in the workplace in 2016.</t>
+  </si>
+  <si>
+    <t>Who are you:
+The WeWork People Operations team strives to create and deliver a seamless and positive employee experience across the entire employee lifecycle. Our team provides consistent service and support across people process, operations, and program management. Our global team is both a strategic partner and hands-on team focused on gathering business requirements, optimizing, and implementing people processes as we launch or enhance some of the most complex operations around the world.
+Responsibilities:
+Manage employee lifecycle activities: recruiting, onboarding, training, performance management and exiting
+Ensure data integrity for all employee data- especially consideration of confidential and sensitive matters
+Ensure timely and clear communication for all HR initiatives
+Liaise with key business partners within the organization to drive and maintain hiring processes while adhering to tight deadlines and service level agreements
+Act as a subject matter expert on state and local employment laws and regulations- advise as appropriate to ensure effective employee relations
+Execute employee inquiry cases through internal case management tool and platform for resolution and escalation
+Document processes, creates ticket quick links and reporting for HR team to leverage summary details to execute
+Conduct data analyses to measure effectiveness of HR initiatives and report on data accuracy of global team
+Participate in testing, review, and roll-out of Workday enhancements for all business processes impacting the global People Team
+Maintain reporting inventory to detail out to key stakeholders
+Assist with document retrieval and uploading accurately
+Qualifications:
+Bachelor’s Degree required
+1-3 years of relevant experience in HR or other bu
+A self-starter with an ability to excel in a dynamic, ever-changing environment- someone who will take initiative
+Exceptional communication, presentation and influencing skills and the ability to manage multiple projects simultaneously
+Proven ability to handle confidential and sensitive matters, utilizing sound judgement in a complex environment
+Experience working effectively with multiple levels of internal and external stakeholders
+Computer skills required: G suite, Excel, PowerPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the Position?
+In this role, you will work within Oscar's Insurance Operations organization to build and improve upon Oscar's eligibility and claims infrastructure and underlying logic. You will be responsible for designing and implementing scalable processes to build on Oscar's operational foundation and will work closely alongside other Oscar teams including Tech, Risk, Legal, Network, Sales and Marketing teams to ensure data integrity and full regulatory compliance as we grow into new markets and products like Medicare Advantage. Finally, you will be the owner of initiatives that will contribute to a unique member experience and will be vital to supporting Oscar's growing membership.
+You'll work alongside the rest of the Insurance Operations team, engineering, data scientists, product managers, sales, and network relationship managers to get your work done. We'll expect you to understand complexity, distill it, and explain it in simple, structured terms.
+Deliverables: What you have to achieve
+During the first 6 weeks you have:
+Developed a thorough understanding of the insurance operations ecosystem (including the underlying technology) as well as its current strengths, weaknesses, and gaps.
+Internalized the coding languages and data structures used in both older health industry systems and the next generation tech platform that Oscar is building.
+Mastered the framework of member enrollment, eligibility and billing, and claims processing.
+On an ongoing basis you will:
+Know how to do your job excellently and perceive problems on the team and the department - you are leading and shaping the direction for initiatives
+Be a trusted partner and key point of contact for other Oscar Teams in your domain
+Partner with the Product and Engineering teams to structure the next generation of Oscar's operating systems
+Implement strategies for scaling Insurance Operations automations to sustain future growth
+Develop subject matter expertise on all Insurance Operations policies and standard operating procedures
+Drive the culture at Oscar, through your daily actions and participation. You initiate activity the promotes the Oscar culture and includes others in it
+What leads to success in this role?
+Must-have qualities include:
+A bachelor's degree
+A technical bend and the ability to use tools to answer your own questions (e.g. SQL/Python)
+Outstanding structured, systematic, and critical thinking
+A passion for distilling complex concepts and workflows into clear, concise content
+A desire to eliminate waste while driving operational excellence
+A demonstration of deep analytical skills
+A strong desire to follow through ideas until you implement them in reality
+2-4 years experience in a technical role (QA analyst, PM, operations analyst, finance, consulting, industrial engineering)
+We think it will make a big (positive) difference if you have...
+An academic and professional background in coding, math, statistics, or data science
+Knowledge and passion of healthcare and/or health insurance
+Experience automating or scaling manual operational processes
+Insatiable curiosity of subject matter and a desire to seek the truth
+Knowledge management, training, or content development experience
+A willingness to master the detail but also zoom out to understand the big picture
+An enjoyment experimenting and iterating on ways to solve a problem
+</t>
+  </si>
+  <si>
+    <t>You will help create processes and workflows to help people in the organization do more of the right things better and faster. Your work will involve designing, managing and constantly improving our framework that help stakeholders understand Spotify’s mission, vision and objectives, and how their work fits into those models.
+What you’ll do
+Working cross-functionally to support functional and departmental (Content) bets
+Advising Business Case Development with team leads
+Assisting the Budgeting &amp; Forecasting processes
+Coordinating work for team members who support the CCM Rhythm, Budgeting, and Forecasting process or who program manage key functional bets
+Strategic thinker who develops &amp; recommends business operations and who proactively looks to develop and apply improved operating models (improved structure &amp; achieve operational efficiencies)
+Building new operational capacities to alleviate unmet needs from the functional teams
+Providing operational planning support in anticipation of business model changes and demands on team needs
+Building long term-operational roadmap (6, 12, 18-month plan for the team)
+Embed closely with other Operations leads, managers, and directors across the company
+Who you are
+You are a passionate problem solver with an agile mindset and have a track record of creating environments that help people do meaningful work
+You think, act and communicate clearly and confidently with your team members and stakeholders across the company
+You are comfortable partnering with individual contributors, vendors, and C-level executives
+You prioritize regularly and work iteratively to maximize positive organizational impact
+You have demonstrable experience of working on critical, highly visible projects and thriving even when given a short timeline
+You learn quickly and help your team to do so too
+You care deeply about operational efficiency
+You “work out loud”, making your work-in-progress visible and receptive to constant feedback
+You are a curious person actively seeking inspiration and engaging in discussion on new operational and organizational theories, technologies and business challenges
+We believe that everyone should enjoy their job, so we live by a work hard, play hard ethos. Spotify is a positive, fun, high-energy work environment that you’ve always wanted to be part of!</t>
+  </si>
+  <si>
+    <t>We have en exciting for someone to join our Head Office New York team! This person will work in close collaboration with the SVP of Operations and Wholesale Teams to provide overall
+administrative support in functional areas within those departments.
+We have en exciting for someone to join our Head Office New York team! This person will work in close collaboration with the SVP of Operations and Wholesale Teams to provide overall
+administrative support in functional areas within those departments.
+Specific Responsibilities
+Provide administrative support to all functions of the Logistics &amp; Operations as and when required.
+Create and send Master and Order files to 3rd party warehouse, and ensure EDI catalogues are uploaded correctly.
+Print, check and send out order confirmations, work with wholesale team to resolve order entry errors or issue, ensure relevant changes are corrected in Prima, add PO refs to Prima, issue advice to buyers with any corrections.
+Manage all Canadian shipping, working closely with UK distribution and warehouse teams, US wholesale team, and directly with dept store buying teams and independent stores.
+Assist with 3rd party warehouse logistics, call off of wholesale product for shipping, management of order book, and assist with excess stock processing.
+Assist in reconciliation of EDI orders against purchase orders with the Wholesale Team.
+Liaise directly with wholesale customer on order discrepancies, and receiving confirmation of changes, to ensure timely shipping.
+Liaise with Wholesale Team with regards to stock replenishment orders, return authorizations and sample pulling for the Wholesale Team and complete all relevant paperwork for these processes.
+Actively monitor Returns and Excess stock at 3rd party warehouse, ensure RTV's are complete within authorized window, reconciliation against received stock and deductions.
+Actively monitor distribution and production in relation to delivery windows, late production, along with maintaining shipping logs for all collections.
+Monitor, and assist with department store chargeback disputes for US and Canada.
+Actively dispute erroneous chargebacks with dept store, ensure chargeback log is updated and all relevant info is included.
+Manage return of excess stock from Canadian 3rd party warehouse to UK.
+Assist with implementation of sample sales or sale to off-price retail clients.
+Liaise with internal depts., clients and relevant governmental resources for all Canadian labelling, customs or compliance issues.
+Assist with end of month reporting.
+Any other related duties, not specified above, as outlined by your Line Manager.
+Essential Experience and Skills Required:
+1-3 years previous experience in Logistics/Wholesale field
+Familiarity with EDI processes
+Strong Microsoft Excel skills
+Excellent written and oral communication skills
+Detail oriented with strong follow-up skills
+In addition to the base compensation, this role attracts:
+A generous Clothing Allowance
+Discretionary discount on Paul Smith goods
+Basic medical and dental insurance, disability, life insurance and a 401(k) plan (after a 60-day introductory period)
+Vacation, sick/personal days in accordance with Company Policy</t>
+  </si>
+  <si>
+    <t>$52,524 - $81,535 a yearThe Division of Housing Supervision oversees a large and heavily-regulated portfolio of residential properties and units, notably the approximately 45,000 units in 94 properties that comprise the Mitchell-Lama portfolio. Housing Supervision is committed to ensuring that all properties in its portfolio are safe, habitable, and affordable for current and future residents.
+The Operations Analyst is chiefly responsible for examining and innovating Mitchell-Lama internal practices and program policies to achieve and improve consistency and responsiveness to customer needs. Reporting to the Executive Director of Mitchell-Lama Portfolio and working closely with Division leadership, the Operations Analyst will propose impactful and feasible approaches for re-engineering administrative practice in the Division and will work closely with staff to implement changes methodically using tested methods and tools. The Operations Analyst must have strong computer skills and will provide technological assistance to staff across the entire division.
+Key responsibilities:
+Reporting directly to the Executive Director of Mitchell-Lama, strategically review current Housing Supervision administrative practices and provide expertise on process improvements, technology practices and other areas that will improve the daily operations of the Division of Housing Supervision
+Assist in the development of appropriate policies and processes to enhance compliance methodologies
+Work closely with Housing Supervision Management to understand current processes and identify operational gaps that can be filled
+Presenting new innovative strategies, technology and/or initiatives to Management and Staff
+Strong liaison &amp; advocate between the Division of Housing Supervision and the HPD Technology teams to ensure technology needs are addressed
+Minimum Qual Requirements
+1. A baccalaureate degree from an accredited college and two years of experience in community work or community centered activities in an area related to the duties described above; or
+2. High school graduation or equivalent and six years of experience in community work or community centered activities in an area related to the duties as described above; or
+3. Education and/or experience which is equivalent to "1" or "2" above. However, all candidates must have at least one year of experience as described in "1" above.
+Preferred Skills
+Strong communication skills, both written and verbal
+Team player with an ability to work with others in resolving problems
+Strong computer skills including but not limited to Microsoft Excel and Access
+To Apply
+Apply-Online
+Work Location
+100 Gold Street
+Residency Requirement
+New York City residency is generally required within 90 days of appointment. However, City Employees in certain titles who have worked for the City for 2 continuous years may also be eligible to reside in Nassau, Suffolk, Putnam, Westchester, Rockland, or Orange County. To determine if the residency requirement applies to you, please discuss with the agency representative at the time of interview.</t>
+  </si>
+  <si>
+    <t>Facebook's mission is to give people the power to build community and bring the world closer together. Through our family of apps and services, we're building a different kind of company that connects billions of people around the world, gives them ways to share what matters most to them, and helps bring people closer together. Whether we're creating new products or helping a small business expand its reach, people at Facebook are builders at heart. Our global teams are constantly iterating, solving problems, and working together to empower people around the world to build community and connect in meaningful ways. Together, we can help people build stronger communities — we're just getting started.
+We are seeking an Operations Lead to help shape and grow a new Operations team for CrowdTangle and manage our support operations in the U.S. CrowdTangle is a social discovery &amp; analytics platform that was acquired by Facebook in late 2016. CrowdTangle is a free platform used primarily by media publishers to discover stories, benchmark against competitors and identify influencers.
+This individual will directly support our users, reduce product issues on our platform, liaise with CrowdTangle's Product &amp; Engineering and Partnerships teams to improve the feedback loop with partners, and help to build out the operational foundation for this new team. Candidates will be data-driven, self-motivated, excited about getting into the weeds with operational issues, and flexible to frequent changes. They will be expected to think creatively about nebulous issues and are passionate about problem solving. They will also work cross-functionally with Product and Partnerships to improve experiences for our partners. This role is based in New York, NY.
 RESPONSIBILITIES
-QUALIFICATIONS
-WHY WORK AT LEGER?
-Dynamic, technological marketing agency/ Forerunner in its field / Our incredible team / Stimulating projects / Big brand clients / A flat corporate structure/ Learning opportunities / Friendly environment
-If you want to be part of a great team and you think you are the motivated and ambitious person we are looking for, contact us!</t>
+Provide our users with a delightful, responsive and effective support experience
+Manage and improve support operations and workflows around issue resolution and product insights
+Partner closely with cross-functional teams including Product &amp; Engineering, Partnerships and Operations to execute on our support strategy across our platform
+Lead team analytics &amp; reporting and measure progress against goals
+Identify trends and key insights to drive impact around product development, user experience, and operational efficiency
+Proactively identify and lead initiatives to deliver exceptional customer service
+Recruit, train, and supervise contractors as the team grows
+MINIMUM QUALIFICATIONS
+B.A. or B.S. degree
+5+ years of experience in online operations, consulting, analytics, product management or related industries
+Experience using data to tell a story
+Experience managing results to metrics
+Experience working with cross-functional teams
+PREFERRED QUALIFICATIONS
+MBA
+Experience in the media industry
+Experience with people management
+Experience with data &amp; analytics tools (e.g. SQL, Tableau)</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=a7b00968a1d81cb9&amp;fccid=33403978182f9a76&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=5d9a47832cd97447&amp;fccid=1b50fcfb150b1b48&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=78dee71a3647a849&amp;fccid=fe404d18bb9eef1e&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=3a8a5063489219a2&amp;fccid=76644a33987f2488&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=ed319ceaefc7f92a&amp;fccid=e76dadb9a0d8a2cf&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=685b1a438ac8b4f2&amp;fccid=1dabef2956e95968&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=5119c20683951fe2&amp;fccid=fe404d18bb9eef1e&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=10bfe4edaa0de9a4&amp;fccid=67130d28065d50b6&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=1a97c85596044fbd&amp;fccid=7690d1268f298c33&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=1c58e2192aa4610c&amp;fccid=1639254ea84748b5&amp;vjs=3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +427,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,16 +468,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -388,26 +776,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>